--- a/labs/1.xlsx
+++ b/labs/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\tfftcs\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E048A458-71C0-424F-9611-B2AB47B25CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CE447-9718-4B62-90FA-023C8A48E7DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{283B7C87-908F-4FEA-BD05-23E8B5805137}"/>
   </bookViews>
@@ -28,6 +28,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1.0E-5</t>
+  </si>
+  <si>
+    <t>1.0E-6</t>
+  </si>
+  <si>
+    <t>1.0E-7</t>
+  </si>
+  <si>
+    <t>1.0E-8</t>
+  </si>
+  <si>
+    <t>1.0E-9</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,9 +123,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -114,11 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean time between</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> failures</a:t>
+              <a:t>Mean time between failures</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -136,9 +155,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -170,27 +192,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -301,27 +322,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="14"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -432,27 +452,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent3"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="14"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -563,27 +582,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent4"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="14"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -679,93 +695,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent5"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$D$7:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>65526</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65527</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65528</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65529</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65530</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65531</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65532</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65533</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65534</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65535</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$7:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-3CCA-48E7-A9B7-B205379772C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
@@ -775,27 +704,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="197218031"/>
@@ -812,8 +720,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -828,9 +737,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -858,9 +770,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -872,13 +787,19 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -887,9 +808,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -919,8 +843,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -935,9 +860,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -964,9 +892,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -978,15 +909,19 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -997,7 +932,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1020,7 +958,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1036,7 +974,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1053,12 +994,1886 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$25:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>195.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37B2-4741-933A-3FE34A38448E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>732717066011.79004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48012751183.550003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3146179558.5599999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206165999.28999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13510056.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>885326.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58016.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3800.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37B2-4741-933A-3FE34A38448E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8921460816296804E+21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5162165629094797E+19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9593863893433203E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1939256307072780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12707946580246.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83276444734.020004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>545727196.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3576313.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23436.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37B2-4741-933A-3FE34A38448E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8514678955708498E+31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.48956136793071E+28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9419197731776298E+25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9278106081655702E+22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2632942915309001E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8278493821831140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5425062571321.3896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3555206253.8600001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2329867.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1525.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37B2-4741-933A-3FE34A38448E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8474264705564603E+41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4869131433615298E+37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9401844445819401E+33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9266734646901001E+29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26254912141142E+25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2736106475212099E+20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4218625295336E+16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3553109171478.2598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232849455.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15258.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-37B2-4741-933A-3FE34A38448E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="448861951"/>
+        <c:axId val="448115007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448861951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (little)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448115007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448115007"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000001E+50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448861951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$44:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>195.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84B8-47A2-9FAF-1B57D5329053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$44:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34613.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11340.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3714.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1216.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84B8-47A2-9FAF-1B57D5329053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$44:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>578047.05000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126258.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27577.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6023.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1315.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84B8-47A2-9FAF-1B57D5329053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$44:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3241253.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530973.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86983.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14249.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2334.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-84B8-47A2-9FAF-1B57D5329053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="347077327"/>
+        <c:axId val="347394383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="347077327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347394383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347394383"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347077327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1123,78 +2938,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1202,7 +3106,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1221,14 +3128,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1241,14 +3143,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1256,28 +3153,23 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -1289,9 +3181,15 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1311,20 +3209,21 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1332,9 +3231,7 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1343,15 +3240,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1365,178 +3262,169 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1545,13 +3433,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1560,40 +3447,231 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
     <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1601,16 +3679,348 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1621,8 +4031,543 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1669,6 +4614,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F51A54-2AF5-4948-A3C2-44A367579C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4CC112-54CC-4DDB-8FB5-A90CF30FAF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1974,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E94AB-3C3E-4C5B-BEBE-A3B89F55D39D}">
-  <dimension ref="C6:H17"/>
+  <dimension ref="C6:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,9 +5021,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7">
         <v>65526</v>
       </c>
@@ -2024,9 +5039,6 @@
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>4</v>
-      </c>
       <c r="D8">
         <v>65527</v>
       </c>
@@ -2044,9 +5056,6 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>16</v>
-      </c>
       <c r="D9">
         <v>65528</v>
       </c>
@@ -2064,9 +5073,6 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>64</v>
-      </c>
       <c r="D10">
         <v>65529</v>
       </c>
@@ -2084,9 +5090,6 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>256</v>
-      </c>
       <c r="D11">
         <v>65530</v>
       </c>
@@ -2104,9 +5107,6 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1024</v>
-      </c>
       <c r="D12">
         <v>65531</v>
       </c>
@@ -2124,9 +5124,6 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>4096</v>
-      </c>
       <c r="D13">
         <v>65532</v>
       </c>
@@ -2144,9 +5141,6 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>16384</v>
-      </c>
       <c r="D14">
         <v>65533</v>
       </c>
@@ -2164,9 +5158,6 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>65536</v>
-      </c>
       <c r="D15">
         <v>65534</v>
       </c>
@@ -2184,9 +5175,6 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>262144</v>
-      </c>
       <c r="D16">
         <v>65535</v>
       </c>
@@ -2203,7 +5191,7 @@
         <v>2329.87</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>65536</v>
       </c>
@@ -2217,6 +5205,407 @@
         <v>1.53</v>
       </c>
       <c r="H17">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>65527</v>
+      </c>
+      <c r="E25">
+        <v>195.76</v>
+      </c>
+      <c r="F25">
+        <v>732717066011.79004</v>
+      </c>
+      <c r="G25">
+        <v>6.8921460816296804E+21</v>
+      </c>
+      <c r="H25">
+        <v>6.8514678955708498E+31</v>
+      </c>
+      <c r="I25">
+        <v>6.8474264705564603E+41</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>65528</v>
+      </c>
+      <c r="E26">
+        <v>127.27</v>
+      </c>
+      <c r="F26">
+        <v>48012751183.550003</v>
+      </c>
+      <c r="G26">
+        <v>4.5162165629094797E+19</v>
+      </c>
+      <c r="H26">
+        <v>4.48956136793071E+28</v>
+      </c>
+      <c r="I26">
+        <v>4.4869131433615298E+37</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>65529</v>
+      </c>
+      <c r="E27">
+        <v>82.4</v>
+      </c>
+      <c r="F27">
+        <v>3146179558.5599999</v>
+      </c>
+      <c r="G27">
+        <v>2.9593863893433203E+17</v>
+      </c>
+      <c r="H27">
+        <v>2.9419197731776298E+25</v>
+      </c>
+      <c r="I27">
+        <v>2.9401844445819401E+33</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>65530</v>
+      </c>
+      <c r="E28">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>206165999.28999999</v>
+      </c>
+      <c r="G28">
+        <v>1939256307072780</v>
+      </c>
+      <c r="H28">
+        <v>1.9278106081655702E+22</v>
+      </c>
+      <c r="I28">
+        <v>1.9266734646901001E+29</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>65531</v>
+      </c>
+      <c r="E29">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F29">
+        <v>13510056.93</v>
+      </c>
+      <c r="G29">
+        <v>12707946580246.9</v>
+      </c>
+      <c r="H29">
+        <v>1.2632942915309001E+19</v>
+      </c>
+      <c r="I29">
+        <v>1.26254912141142E+25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>65532</v>
+      </c>
+      <c r="E30">
+        <v>21.1</v>
+      </c>
+      <c r="F30">
+        <v>885326.54</v>
+      </c>
+      <c r="G30">
+        <v>83276444734.020004</v>
+      </c>
+      <c r="H30">
+        <v>8278493821831140</v>
+      </c>
+      <c r="I30">
+        <v>8.2736106475212099E+20</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>65533</v>
+      </c>
+      <c r="E31">
+        <v>12.83</v>
+      </c>
+      <c r="F31">
+        <v>58016.22</v>
+      </c>
+      <c r="G31">
+        <v>545727196.63</v>
+      </c>
+      <c r="H31">
+        <v>5425062571321.3896</v>
+      </c>
+      <c r="I31">
+        <v>5.4218625295336E+16</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>65534</v>
+      </c>
+      <c r="E32">
+        <v>7.41</v>
+      </c>
+      <c r="F32">
+        <v>3800.98</v>
+      </c>
+      <c r="G32">
+        <v>3576313.04</v>
+      </c>
+      <c r="H32">
+        <v>3555206253.8600001</v>
+      </c>
+      <c r="I32">
+        <v>3553109171478.2598</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>65535</v>
+      </c>
+      <c r="E33">
+        <v>3.85</v>
+      </c>
+      <c r="F33">
+        <v>248.09</v>
+      </c>
+      <c r="G33">
+        <v>23436.01</v>
+      </c>
+      <c r="H33">
+        <v>2329867.87</v>
+      </c>
+      <c r="I33">
+        <v>232849455.44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>65536</v>
+      </c>
+      <c r="E34">
+        <v>1.53</v>
+      </c>
+      <c r="F34">
+        <v>15.26</v>
+      </c>
+      <c r="G34">
+        <v>152.59</v>
+      </c>
+      <c r="H34">
+        <v>1525.88</v>
+      </c>
+      <c r="I34">
+        <v>15258.79</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>65527</v>
+      </c>
+      <c r="E44">
+        <v>195.76</v>
+      </c>
+      <c r="F44">
+        <v>34613.42</v>
+      </c>
+      <c r="G44">
+        <v>578047.05000000005</v>
+      </c>
+      <c r="H44">
+        <v>3241253.18</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>65528</v>
+      </c>
+      <c r="E45">
+        <v>127.27</v>
+      </c>
+      <c r="F45">
+        <v>11340.07</v>
+      </c>
+      <c r="G45">
+        <v>126258.63</v>
+      </c>
+      <c r="H45">
+        <v>530973.74</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>65529</v>
+      </c>
+      <c r="E46">
+        <v>82.4</v>
+      </c>
+      <c r="F46">
+        <v>3714.96</v>
+      </c>
+      <c r="G46">
+        <v>27577.919999999998</v>
+      </c>
+      <c r="H46">
+        <v>86983.87</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>65530</v>
+      </c>
+      <c r="E47">
+        <v>53</v>
+      </c>
+      <c r="F47">
+        <v>1216.69</v>
+      </c>
+      <c r="G47">
+        <v>6023.51</v>
+      </c>
+      <c r="H47">
+        <v>14249.66</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>65531</v>
+      </c>
+      <c r="E48">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F48">
+        <v>398.15</v>
+      </c>
+      <c r="G48">
+        <v>1315.4</v>
+      </c>
+      <c r="H48">
+        <v>2334.1999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>65532</v>
+      </c>
+      <c r="E49">
+        <v>21.1</v>
+      </c>
+      <c r="F49">
+        <v>129.96</v>
+      </c>
+      <c r="G49">
+        <v>287</v>
+      </c>
+      <c r="H49">
+        <v>382.16</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>65533</v>
+      </c>
+      <c r="E50">
+        <v>12.83</v>
+      </c>
+      <c r="F50">
+        <v>42.08</v>
+      </c>
+      <c r="G50">
+        <v>62.36</v>
+      </c>
+      <c r="H50">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>65534</v>
+      </c>
+      <c r="E51">
+        <v>7.41</v>
+      </c>
+      <c r="F51">
+        <v>13.29</v>
+      </c>
+      <c r="G51">
+        <v>13.29</v>
+      </c>
+      <c r="H51">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>65535</v>
+      </c>
+      <c r="E52">
+        <v>3.85</v>
+      </c>
+      <c r="F52">
+        <v>3.85</v>
+      </c>
+      <c r="G52">
+        <v>3.85</v>
+      </c>
+      <c r="H52">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>65536</v>
+      </c>
+      <c r="E53">
+        <v>1.53</v>
+      </c>
+      <c r="F53">
+        <v>1.53</v>
+      </c>
+      <c r="G53">
+        <v>1.53</v>
+      </c>
+      <c r="H53">
         <v>1.53</v>
       </c>
     </row>

--- a/labs/1.xlsx
+++ b/labs/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\tfftcs\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CE447-9718-4B62-90FA-023C8A48E7DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4989918-456C-4D6D-8229-C1BC16B22243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{283B7C87-908F-4FEA-BD05-23E8B5805137}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>1.0E-5</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>1.0E-9</t>
+  </si>
+  <si>
+    <t>1.0E7</t>
   </si>
 </sst>
 </file>
@@ -2898,6 +2901,2797 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$62:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$62:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-871F-45D5-AAAA-5636A7AF34E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$62:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$62:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-871F-45D5-AAAA-5636A7AF34E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$62:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$62:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-871F-45D5-AAAA-5636A7AF34E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$62:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$62:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-871F-45D5-AAAA-5636A7AF34E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="337647487"/>
+        <c:axId val="339604031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337647487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339604031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="339604031"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337647487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$81:$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$81:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$81:$G$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$81:$H$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$81:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0E-9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$81:$J$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4D7C-496A-B76F-C6AA3F0CDF91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="367021199"/>
+        <c:axId val="348547375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="367021199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348547375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348547375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367021199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$99:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$99:$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-753A-4CFC-9B3C-8DCC4E709DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$99:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$99:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-753A-4CFC-9B3C-8DCC4E709DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$99:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$99:$G$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-753A-4CFC-9B3C-8DCC4E709DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$D$99:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$99:$H$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-753A-4CFC-9B3C-8DCC4E709DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="348526319"/>
+        <c:axId val="451447471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="348526319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451447471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451447471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348526319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3018,6 +5812,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -4061,6 +6975,1569 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4686,6 +9163,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C9FA97-3096-4EFF-BB49-F9432DB109AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E56EA5D-C6A1-4E7E-B0DC-96C29845CBF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AEBBD1-F8CC-4953-9F3E-68F183FC4B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4991,10 +9576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E94AB-3C3E-4C5B-BEBE-A3B89F55D39D}">
-  <dimension ref="C6:I53"/>
+  <dimension ref="C6:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,6 +9589,8 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -5607,6 +10194,681 @@
       </c>
       <c r="H53">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>900</v>
+      </c>
+      <c r="E62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F62">
+        <v>0.91</v>
+      </c>
+      <c r="G62">
+        <v>0.32</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>910</v>
+      </c>
+      <c r="E63">
+        <v>10.06</v>
+      </c>
+      <c r="F63">
+        <v>0.92</v>
+      </c>
+      <c r="G63">
+        <v>0.32</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>920</v>
+      </c>
+      <c r="E64">
+        <v>11.09</v>
+      </c>
+      <c r="F64">
+        <v>0.92</v>
+      </c>
+      <c r="G64">
+        <v>0.32</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>930</v>
+      </c>
+      <c r="E65">
+        <v>12.32</v>
+      </c>
+      <c r="F65">
+        <v>0.93</v>
+      </c>
+      <c r="G65">
+        <v>0.33</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>940</v>
+      </c>
+      <c r="E66">
+        <v>13.83</v>
+      </c>
+      <c r="F66">
+        <v>0.94</v>
+      </c>
+      <c r="G66">
+        <v>0.33</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>950</v>
+      </c>
+      <c r="E67">
+        <v>15.72</v>
+      </c>
+      <c r="F67">
+        <v>0.95</v>
+      </c>
+      <c r="G67">
+        <v>0.33</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>960</v>
+      </c>
+      <c r="E68">
+        <v>18.12</v>
+      </c>
+      <c r="F68">
+        <v>0.96</v>
+      </c>
+      <c r="G68">
+        <v>0.33</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>970</v>
+      </c>
+      <c r="E69">
+        <v>21.24</v>
+      </c>
+      <c r="F69">
+        <v>0.97</v>
+      </c>
+      <c r="G69">
+        <v>0.33</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>980</v>
+      </c>
+      <c r="E70">
+        <v>25.41</v>
+      </c>
+      <c r="F70">
+        <v>0.98</v>
+      </c>
+      <c r="G70">
+        <v>0.33</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>990</v>
+      </c>
+      <c r="E71">
+        <v>31.14</v>
+      </c>
+      <c r="F71">
+        <v>0.99</v>
+      </c>
+      <c r="G71">
+        <v>0.33</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1000</v>
+      </c>
+      <c r="E72">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0.33</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>8092</v>
+      </c>
+      <c r="E81">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F81">
+        <v>1.01</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>8102</v>
+      </c>
+      <c r="E82">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F82">
+        <v>1.01</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>8112</v>
+      </c>
+      <c r="E83">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F83">
+        <v>1.01</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>8122</v>
+      </c>
+      <c r="E84">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F84">
+        <v>1.01</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>8132</v>
+      </c>
+      <c r="E85">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F85">
+        <v>1.01</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>8142</v>
+      </c>
+      <c r="E86">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F86">
+        <v>1.01</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>8152</v>
+      </c>
+      <c r="E87">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F87">
+        <v>1.01</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>8162</v>
+      </c>
+      <c r="E88">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F88">
+        <v>1.01</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>8172</v>
+      </c>
+      <c r="E89">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F89">
+        <v>1.01</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>8182</v>
+      </c>
+      <c r="E90">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F90">
+        <v>1.01</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>8192</v>
+      </c>
+      <c r="E91">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F91">
+        <v>1.01</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>8092</v>
+      </c>
+      <c r="E99">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.52</v>
+      </c>
+      <c r="G99">
+        <v>0.34</v>
+      </c>
+      <c r="H99">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>8102</v>
+      </c>
+      <c r="E100">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F100">
+        <v>0.52</v>
+      </c>
+      <c r="G100">
+        <v>0.34</v>
+      </c>
+      <c r="H100">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>8112</v>
+      </c>
+      <c r="E101">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F101">
+        <v>0.52</v>
+      </c>
+      <c r="G101">
+        <v>0.34</v>
+      </c>
+      <c r="H101">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>8122</v>
+      </c>
+      <c r="E102">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F102">
+        <v>0.52</v>
+      </c>
+      <c r="G102">
+        <v>0.34</v>
+      </c>
+      <c r="H102">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>8132</v>
+      </c>
+      <c r="E103">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.52</v>
+      </c>
+      <c r="G103">
+        <v>0.34</v>
+      </c>
+      <c r="H103">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>8142</v>
+      </c>
+      <c r="E104">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.52</v>
+      </c>
+      <c r="G104">
+        <v>0.34</v>
+      </c>
+      <c r="H104">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>8152</v>
+      </c>
+      <c r="E105">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F105">
+        <v>0.52</v>
+      </c>
+      <c r="G105">
+        <v>0.34</v>
+      </c>
+      <c r="H105">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>8162</v>
+      </c>
+      <c r="E106">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F106">
+        <v>0.52</v>
+      </c>
+      <c r="G106">
+        <v>0.34</v>
+      </c>
+      <c r="H106">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>8172</v>
+      </c>
+      <c r="E107">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F107">
+        <v>0.52</v>
+      </c>
+      <c r="G107">
+        <v>0.34</v>
+      </c>
+      <c r="H107">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>8182</v>
+      </c>
+      <c r="E108">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F108">
+        <v>0.52</v>
+      </c>
+      <c r="G108">
+        <v>0.34</v>
+      </c>
+      <c r="H108">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>8192</v>
+      </c>
+      <c r="E109">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F109">
+        <v>1.04</v>
+      </c>
+      <c r="G109">
+        <v>1.04</v>
+      </c>
+      <c r="H109">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
